--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
@@ -570,7 +570,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Suddiesjávrrie</t>
+          <t>Slaktarberget</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -588,45 +588,328 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>57</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Doftticka
+Fläckporing
+Gräddporing
+Gräddticka
+Knärot
+Lappticka
+Blanksvart spiklav
+Blågrå svartspik
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Harticka
+Hornvaxskinn
+Järpe
+Knottrig blåslav
+Kolflarnlav
+Kortskaftad ärgspik
+Lunglav
+Mospindling
+Mörk kolflarnlav
+Nordtagging
+Rosenticka
+Skrovellav
+Skrovlig taggsvamp
+Spillkråka
+Stjärntagging
+Talltita
+Tretåig hackspett
+Ullticka
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Vitgrynig nållav
+Vitplätt
+Bronshjon
+Bårdlav
+Dropptaggsvamp
+Korallrot
+Luddlav
+Mörk husmossa
+Norrlandslav
+Nästlav
+Plattlummer
+Skarp dropptaggsvamp
+Skinnlav
+Spindelblomster
+Stuplav
+Trådticka
+Vedticka
+Ögonpyrola
+Lavskrika
+Tjäder
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Slaktarberget artfynd.xlsx", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Slaktarberget karta.png", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Slaktarberget karta knärot.png", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Slaktarberget FSC-klagomål.docx", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Slaktarberget FSC-klagomål mail.docx", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Slaktarberget tillsynsbegäran.docx", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Slaktarberget tillsynsbegäran mail.docx", "Slaktarberget")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Slaktarberget prioriterade fågelarter.docx", "Slaktarberget")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stenberget-Klockartjärnen</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>32</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>48</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Liten sotlav
+Narrporing
+Tajgaskinn
+Blanksvart spiklav
+Blågrå svartspik
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Järpe
+Knottrig blåslav
+Kolflarnlav
+Koralltaggsvamp
+Kortskaftad ärgspik
+Leptoporus mollis
+Nordtagging
+Rosenticka
+Rödbrun blekspik
+Talltita
+Tretåig hackspett
+Ullticka
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Violmussling
+Vitgrynig nållav
+Vitplätt
+Björksplintborre
+Blodticka
+Bronshjon
+Dropptaggsvamp
+Norrlandslav
+Nästlav
+Plattlummer
+Skinnlav
+Vedticka
+Vågbandad barkbock
+Lavskrika
+Tjäder
+Vanlig groda
+Vanlig padda
+Lopplummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Stenberget-Klockartjärnen artfynd.xlsx", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Stenberget-Klockartjärnen karta.png", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Stenberget-Klockartjärnen FSC-klagomål.docx", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Stenberget-Klockartjärnen FSC-klagomål mail.docx", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Stenberget-Klockartjärnen tillsynsbegäran.docx", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Stenberget-Klockartjärnen tillsynsbegäran mail.docx", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Stenberget-Klockartjärnen prioriterade fågelarter.docx", "Stenberget-Klockartjärnen")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Suddiesjávrrie</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>233.9</v>
       </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>21</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Doftticka
+Fläckporing
 Gräddporing
 Smalfotad taggsvamp
 Tajgataggsvamp
 Tallgråticka
+Blanksvart spiklav
 Blå taggsvamp
 Blågrå svartspik
 Dvärgbägarlav
@@ -647,6 +930,7 @@
 Vaddporing
 Vedflamlav
 Vedskivlav
+Vedtrappmossa
 Vitgrynig nållav
 Dropptaggsvamp
 Norrlandslav
@@ -655,99 +939,101 @@
 Skarp dropptaggsvamp
 Kungsfågel
 Lavskrika
+Tjäder
 Lopplummer
 Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Suddiesjávrrie artfynd.xlsx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Suddiesjávrrie karta.png", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Suddiesjávrrie FSC-klagomål.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Suddiesjávrrie FSC-klagomål mail.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Suddiesjávrrie tillsynsbegäran.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Suddiesjávrrie tillsynsbegäran mail.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Suddiesjávrrie prioriterade fågelarter.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Östra Luspenåivve</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G5" t="n">
         <v>207.9</v>
       </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26</v>
+      </c>
+      <c r="P5" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>23</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>31</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Urskogsporing
 Blackticka
 Fläckporing
 Gräddporing
+Knärot
 Smalfotad taggsvamp
 Tajgataggsvamp
 Blanksvart spiklav
@@ -757,11 +1043,13 @@
 Gammelgransskål
 Garnlav
 Granticka
+Gränsticka
 Lunglav
 Nordtagging
 Orange taggsvamp
 Spillkråka
 Svart taggsvamp
+Talltita
 Tretåig hackspett
 Ullticka
 Vaddporing
@@ -772,94 +1060,100 @@
 Nästlav
 Plattlummer
 Skarp dropptaggsvamp
+Spindelblomster
 Stuplav
 Vedticka
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S3">
+Tjäder
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Östra Luspenåivve artfynd.xlsx", "Östra Luspenåivve")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Östra Luspenåivve karta.png", "Östra Luspenåivve")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Östra Luspenåivve karta knärot.png", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Östra Luspenåivve FSC-klagomål.docx", "Östra Luspenåivve")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Östra Luspenåivve FSC-klagomål mail.docx", "Östra Luspenåivve")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Östra Luspenåivve tillsynsbegäran.docx", "Östra Luspenåivve")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Östra Luspenåivve tillsynsbegäran mail.docx", "Östra Luspenåivve")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Östra Luspenåivve prioriterade fågelarter.docx", "Östra Luspenåivve")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Fiskträskberget-Sotträskberget</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>458.4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K6" t="n">
         <v>5</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>20</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P6" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q6" t="n">
         <v>30</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Liten sotlav
@@ -893,89 +1187,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Fiskträskberget-Sotträskberget artfynd.xlsx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Fiskträskberget-Sotträskberget karta.png", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Fiskträskberget-Sotträskberget FSC-klagomål.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Fiskträskberget-Sotträskberget FSC-klagomål mail.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Fiskträskberget-Sotträskberget tillsynsbegäran.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Fiskträskberget-Sotträskberget tillsynsbegäran mail.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Fiskträskberget-Sotträskberget prioriterade fågelarter.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Innerstliden A</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" t="n">
         <v>9</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J7" t="n">
         <v>16</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>17</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q7" t="n">
         <v>28</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -1007,89 +1301,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden A artfynd.xlsx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden A karta.png", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden A FSC-klagomål.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden A FSC-klagomål mail.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden A tillsynsbegäran.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden A tillsynsbegäran mail.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden A prioriterade fågelarter.docx", "Innerstliden A")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Innerstliden B</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>30.7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>16</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q8" t="n">
         <v>20</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Blågrå svartspik
@@ -1113,89 +1407,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden B artfynd.xlsx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden B karta.png", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden B FSC-klagomål.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden B FSC-klagomål mail.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden B tillsynsbegäran.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden B tillsynsbegäran mail.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden B prioriterade fågelarter.docx", "Innerstliden B")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Mittiliden</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>51.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>12</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>16</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Dvärgbägarlav
@@ -1215,184 +1509,89 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Mittiliden artfynd.xlsx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Mittiliden karta.png", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Mittiliden FSC-klagomål.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Mittiliden FSC-klagomål mail.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Mittiliden tillsynsbegäran.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Mittiliden tillsynsbegäran mail.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Mittiliden prioriterade fågelarter.docx", "Mittiliden")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Slaktarberget</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Klammájávrrie</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="G10" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>11</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>13</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Doftticka
-Fläckporing
-Gräddporing
-Gammelgransskål
-Garnlav
-Granticka
-Gränsticka
-Harticka
-Lunglav
-Nordtagging
-Stjärntagging
-Skinnlav
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Slaktarberget artfynd.xlsx", "Slaktarberget")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Slaktarberget karta.png", "Slaktarberget")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Slaktarberget FSC-klagomål.docx", "Slaktarberget")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Slaktarberget FSC-klagomål mail.docx", "Slaktarberget")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Slaktarberget tillsynsbegäran.docx", "Slaktarberget")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Slaktarberget tillsynsbegäran mail.docx", "Slaktarberget")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Klammájávrrie</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>166.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>5</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>10</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Garnlav
@@ -1406,85 +1605,85 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Klammájávrrie artfynd.xlsx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Klammájávrrie karta.png", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Klammájávrrie FSC-klagomål.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Klammájávrrie FSC-klagomål mail.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Klammájávrrie tillsynsbegäran.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Klammájávrrie tillsynsbegäran mail.docx", "Klammájávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Gárddiejávrrie</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>193.7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>8</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>8</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Gammelgransskål
@@ -1496,89 +1695,89 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gárddiejávrrie artfynd.xlsx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gárddiejávrrie karta.png", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gárddiejávrrie FSC-klagomål.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gárddiejávrrie FSC-klagomål mail.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gárddiejávrrie tillsynsbegäran.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gárddiejávrrie tillsynsbegäran mail.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Gárddiejávrrie prioriterade fågelarter.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Tjakttjavárrie</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>83.8</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>7</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>8</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Garnlav
@@ -1590,124 +1789,32 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Tjakttjavárrie artfynd.xlsx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Tjakttjavárrie karta.png", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Tjakttjavárrie FSC-klagomål.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Tjakttjavárrie FSC-klagomål mail.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Tjakttjavárrie tillsynsbegäran.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Tjakttjavárrie tillsynsbegäran mail.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Tjakttjavárrie prioriterade fågelarter.docx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Stenberget-Klockartjärnen</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Gammelgransskål
-Garnlav
-Knottrig blåslav
-Nordtagging
-Tretåig hackspett
-Blodticka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Stenberget-Klockartjärnen artfynd.xlsx", "Stenberget-Klockartjärnen")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Stenberget-Klockartjärnen karta.png", "Stenberget-Klockartjärnen")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Stenberget-Klockartjärnen FSC-klagomål.docx", "Stenberget-Klockartjärnen")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Stenberget-Klockartjärnen FSC-klagomål mail.docx", "Stenberget-Klockartjärnen")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Stenberget-Klockartjärnen tillsynsbegäran.docx", "Stenberget-Klockartjärnen")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Stenberget-Klockartjärnen tillsynsbegäran mail.docx", "Stenberget-Klockartjärnen")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Stenberget-Klockartjärnen prioriterade fågelarter.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
     </row>
@@ -1723,7 +1830,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -1811,7 +1918,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -1899,7 +2006,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -1990,7 +2097,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -2085,7 +2192,7 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -2171,7 +2278,7 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -2257,7 +2364,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -2341,7 +2448,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -2425,7 +2532,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -2509,7 +2616,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -2564,7 +2671,7 @@
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -2639,7 +2746,7 @@
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -2694,7 +2801,7 @@
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">

--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -570,7 +570,7 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slaktarberget</t>
+          <t>Östra Luspenåivve</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -588,39 +588,197 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>61.3</v>
+        <v>207.9</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>16</v>
       </c>
       <c r="J2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>68</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Blackticka
+Doftticka
+Fläckporing
+Gräddporing
+Knärot
+Lateritticka
+Smalfotad taggsvamp
+Tajgataggsvamp
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Brunpudrad nållav
+Doftskinn
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Grå blåbärsfältmätare
+Hornvaxskinn
+Järpe
+Knottrig blåslav
+Kolflarnlav
+Kortskaftad ärgspik
+Kådvaxskinn
+Liten svartspik
+Luddfingersvamp
+Lunglav
+Mörk kolflarnlav
+Nordtagging
+Orange taggsvamp
+Rosenticka
+Spillkråka
+Svart taggsvamp
+Tallticka
+Talltita
+Tretåig hackspett
+Ullticka
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Violmussling
+Vitgrynig nållav
+Vitplätt
+Blodticka
+Bårdlav
+Dropptaggsvamp
+Källpraktmossa
+Luddlav
+Norrlandslav
+Nästlav
+Plattlummer
+Skarp dropptaggsvamp
+Skinnlav
+Sotlav
+Spindelblomster
+Stuplav
+Vedticka
+Vågbandad barkbock
+Ögonpyrola
+Kungsfågel
+Lavskrika
+Tjäder
+Vanlig groda
+Fläcknycklar
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Östra Luspenåivve artfynd.xlsx", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Östra Luspenåivve karta.png", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Östra Luspenåivve karta knärot.png", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Östra Luspenåivve FSC-klagomål.docx", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Östra Luspenåivve FSC-klagomål mail.docx", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Östra Luspenåivve tillsynsbegäran.docx", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Östra Luspenåivve tillsynsbegäran mail.docx", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+      <c r="Z2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Östra Luspenåivve prioriterade fågelarter.docx", "Östra Luspenåivve")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Slaktarberget</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
         <v>31</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>6</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>37</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>57</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -681,93 +839,93 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Slaktarberget artfynd.xlsx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Slaktarberget karta.png", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="U2">
+      <c r="U3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Slaktarberget karta knärot.png", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Slaktarberget FSC-klagomål.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Slaktarberget FSC-klagomål mail.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Slaktarberget tillsynsbegäran.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Slaktarberget tillsynsbegäran mail.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Slaktarberget prioriterade fågelarter.docx", "Slaktarberget")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Stenberget-Klockartjärnen</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>98.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
         <v>5</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>32</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33</v>
+      </c>
+      <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>48</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>52</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -788,6 +946,7 @@
 Koralltaggsvamp
 Kortskaftad ärgspik
 Leptoporus mollis
+Mörk kolflarnlav
 Nordtagging
 Rosenticka
 Rödbrun blekspik
@@ -804,104 +963,107 @@
 Björksplintborre
 Blodticka
 Bronshjon
+Bårdlav
 Dropptaggsvamp
 Norrlandslav
 Nästlav
 Plattlummer
 Skinnlav
+Spindelblomster
 Vedticka
 Vågbandad barkbock
 Lavskrika
 Tjäder
 Vanlig groda
 Vanlig padda
+Fläcknycklar
 Lopplummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Stenberget-Klockartjärnen artfynd.xlsx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Stenberget-Klockartjärnen karta.png", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Stenberget-Klockartjärnen FSC-klagomål.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Stenberget-Klockartjärnen FSC-klagomål mail.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Stenberget-Klockartjärnen tillsynsbegäran.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Stenberget-Klockartjärnen tillsynsbegäran mail.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Stenberget-Klockartjärnen prioriterade fågelarter.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Suddiesjávrrie</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>233.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>30</v>
+      </c>
+      <c r="P5" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
-        <v>40</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>41</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -917,6 +1079,7 @@
 Garnlav
 Knottrig blåslav
 Kolflarnlav
+Kortskaftad ärgspik
 Mörk kolflarnlav
 Nordtagging
 Reliktbock
@@ -945,158 +1108,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Suddiesjávrrie artfynd.xlsx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Suddiesjávrrie karta.png", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Suddiesjávrrie FSC-klagomål.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Suddiesjávrrie FSC-klagomål mail.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Suddiesjávrrie tillsynsbegäran.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Suddiesjávrrie tillsynsbegäran mail.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Suddiesjávrrie prioriterade fågelarter.docx", "Suddiesjávrrie")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Östra Luspenåivve</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>36</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Urskogsporing
-Blackticka
-Fläckporing
-Gräddporing
-Knärot
-Smalfotad taggsvamp
-Tajgataggsvamp
-Blanksvart spiklav
-Blå taggsvamp
-Blågrå svartspik
-Doftskinn
-Gammelgransskål
-Garnlav
-Granticka
-Gränsticka
-Lunglav
-Nordtagging
-Orange taggsvamp
-Spillkråka
-Svart taggsvamp
-Talltita
-Tretåig hackspett
-Ullticka
-Vaddporing
-Vedflamlav
-Vitplätt
-Dropptaggsvamp
-Luddlav
-Nästlav
-Plattlummer
-Skarp dropptaggsvamp
-Spindelblomster
-Stuplav
-Vedticka
-Tjäder
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Östra Luspenåivve artfynd.xlsx", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Östra Luspenåivve karta.png", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Östra Luspenåivve karta knärot.png", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Östra Luspenåivve FSC-klagomål.docx", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Östra Luspenåivve FSC-klagomål mail.docx", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Östra Luspenåivve tillsynsbegäran.docx", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Östra Luspenåivve tillsynsbegäran mail.docx", "Östra Luspenåivve")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Östra Luspenåivve prioriterade fågelarter.docx", "Östra Luspenåivve")</f>
         <v/>
       </c>
     </row>
@@ -1112,7 +1149,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -1228,7 +1265,7 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -1342,7 +1379,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -1448,7 +1485,7 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -1550,7 +1587,7 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -1642,7 +1679,7 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -1736,7 +1773,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -1830,7 +1867,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -1918,7 +1955,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -2006,7 +2043,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -2097,7 +2134,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -2192,7 +2229,7 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -2278,7 +2315,7 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -2364,7 +2401,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -2448,7 +2485,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -2532,7 +2569,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -2616,7 +2653,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -2671,7 +2708,7 @@
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -2746,7 +2783,7 @@
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -2801,7 +2838,7 @@
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">

--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -597,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" t="n">
         <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -634,7 +634,6 @@
 Blanksvart spiklav
 Blå taggsvamp
 Blågrå svartspik
-Brunpudrad nållav
 Doftskinn
 Dvärgbägarlav
 Gammelgransskål
@@ -1037,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -1055,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P5" t="n">
         <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -1077,6 +1076,8 @@
 Dvärgbägarlav
 Gammelgransskål
 Garnlav
+Granticka
+Hornvaxskinn
 Knottrig blåslav
 Kolflarnlav
 Kortskaftad ärgspik
@@ -1100,6 +1101,7 @@
 Nästlav
 Plattlummer
 Skarp dropptaggsvamp
+Vedticka
 Kungsfågel
 Lavskrika
 Tjäder
@@ -1140,7 +1142,7 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fiskträskberget-Sotträskberget</t>
+          <t>Björnideforsen C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1158,39 +1160,164 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>458.4</v>
+        <v>150.9</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>39</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Fläckporing
+Gräddporing
+Kristallticka
+Laxgröppa
+Smalfotad taggsvamp
+Tallstocksticka
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Garnlav
+Granticka
+Gränsticka
+Knottrig blåslav
+Kolflarnlav
+Kortskaftad ärgspik
+Liten svartspik
+Mörk kolflarnlav
+Nordtagging
+Tretåig hackspett
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Violmussling
+Vitgrynig nållav
+Vitplätt
+Blodticka
+Bårdlav
+Dropptaggsvamp
+Gytterlav
+Norrlandslav
+Plattlummer
+Skinnlav
+Stuplav
+Svart trolldruva
+Vedticka
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen C artfynd.xlsx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen C karta.png", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen C FSC-klagomål.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen C FSC-klagomål mail.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen C tillsynsbegäran.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen C tillsynsbegäran mail.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen C prioriterade fågelarter.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fiskträskberget-Sotträskberget</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>458.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>20</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>30</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Liten sotlav
@@ -1224,89 +1351,319 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Fiskträskberget-Sotträskberget artfynd.xlsx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Fiskträskberget-Sotträskberget karta.png", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Fiskträskberget-Sotträskberget FSC-klagomål.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Fiskträskberget-Sotträskberget FSC-klagomål mail.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Fiskträskberget-Sotträskberget tillsynsbegäran.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Fiskträskberget-Sotträskberget tillsynsbegäran mail.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Fiskträskberget-Sotträskberget prioriterade fågelarter.docx", "Fiskträskberget-Sotträskberget")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Avvanm 36411</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Tornseglare
+Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Ulltickeporing
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Knottrig blåslav
+Kolflarnlav
+Kortskaftad ärgspik
+Nordtagging
+Spillkråka
+Svart taggsvamp
+Svartvit taggsvamp
+Tallticka
+Ullticka
+Vaddporing
+Vedflamlav
+Vedskivlav
+Violmussling
+Vitplätt
+Dropptaggsvamp
+Gullgröppa
+Nästlav
+Plattlummer
+Vedticka
+Tjäder
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Avvanm 36411 artfynd.xlsx", "Avvanm 36411")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Avvanm 36411 karta.png", "Avvanm 36411")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Avvanm 36411 FSC-klagomål.docx", "Avvanm 36411")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Avvanm 36411 FSC-klagomål mail.docx", "Avvanm 36411")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Avvanm 36411 tillsynsbegäran.docx", "Avvanm 36411")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Avvanm 36411 tillsynsbegäran mail.docx", "Avvanm 36411")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Avvanm 36411 prioriterade fågelarter.docx", "Avvanm 36411")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Njuorokvárátj</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>21</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>28</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Gränsticka
+Hornvaxskinn
+Järpe
+Kolflarnlav
+Kortskaftad ärgspik
+Mörk kolflarnlav
+Nordtagging
+Skrovlig taggsvamp
+Spillkråka
+Talltita
+Tretåig hackspett
+Vedflamlav
+Vedskivlav
+Vitplätt
+Dropptaggsvamp
+Gullgröppa
+Plattlummer
+Skarp dropptaggsvamp
+Vedticka
+Lavskrika
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Njuorokvárátj artfynd.xlsx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Njuorokvárátj karta.png", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Njuorokvárátj FSC-klagomål.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Njuorokvárátj FSC-klagomål mail.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Njuorokvárátj tillsynsbegäran.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Njuorokvárátj tillsynsbegäran mail.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Njuorokvárátj prioriterade fågelarter.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Innerstliden A</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G10" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I10" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J10" t="n">
         <v>16</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>17</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q10" t="n">
         <v>28</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -1338,89 +1695,195 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden A artfynd.xlsx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden A karta.png", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden A FSC-klagomål.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden A FSC-klagomål mail.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden A tillsynsbegäran.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden A tillsynsbegäran mail.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden A prioriterade fågelarter.docx", "Innerstliden A")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Björnideforsen A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45498</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Kolflarnlav
+Mörk kolflarnlav
+Orange taggsvamp
+Svartvit taggsvamp
+Talltaggsvamp
+Tretåig hackspett
+Vedskivlav
+Dropptaggsvamp
+Gullgröppa
+Plattlummer
+Trådfräken
+Vedticka
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen A artfynd.xlsx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen A karta.png", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen A FSC-klagomål.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen A FSC-klagomål mail.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen A tillsynsbegäran.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen A tillsynsbegäran mail.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen A prioriterade fågelarter.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Innerstliden B</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G12" t="n">
         <v>30.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J12" t="n">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>16</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q12" t="n">
         <v>20</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Blågrå svartspik
@@ -1444,89 +1907,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden B artfynd.xlsx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden B karta.png", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden B FSC-klagomål.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden B FSC-klagomål mail.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden B tillsynsbegäran.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden B tillsynsbegäran mail.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden B prioriterade fågelarter.docx", "Innerstliden B")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Mittiliden</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G13" t="n">
         <v>51.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J13" t="n">
         <v>12</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>12</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>16</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Dvärgbägarlav
@@ -1546,89 +2009,89 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Mittiliden artfynd.xlsx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Mittiliden karta.png", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Mittiliden FSC-klagomål.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Mittiliden FSC-klagomål mail.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Mittiliden tillsynsbegäran.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Mittiliden tillsynsbegäran mail.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Mittiliden prioriterade fågelarter.docx", "Mittiliden")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Klammájávrrie</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G14" t="n">
         <v>166.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>5</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>10</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Garnlav
@@ -1642,85 +2105,85 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Klammájávrrie artfynd.xlsx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Klammájávrrie karta.png", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Klammájávrrie FSC-klagomål.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Klammájávrrie FSC-klagomål mail.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Klammájávrrie tillsynsbegäran.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Klammájávrrie tillsynsbegäran mail.docx", "Klammájávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Gárddiejávrrie</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G15" t="n">
         <v>193.7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>8</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>8</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>8</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Gammelgransskål
@@ -1732,89 +2195,89 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gárddiejávrrie artfynd.xlsx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gárddiejávrrie karta.png", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gárddiejávrrie FSC-klagomål.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gárddiejávrrie FSC-klagomål mail.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gárddiejávrrie tillsynsbegäran.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gárddiejávrrie tillsynsbegäran mail.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Gárddiejávrrie prioriterade fågelarter.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Tjakttjavárrie</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G16" t="n">
         <v>83.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J16" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>7</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>8</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Garnlav
@@ -1826,356 +2289,89 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Tjakttjavárrie artfynd.xlsx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Tjakttjavárrie karta.png", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Tjakttjavárrie FSC-klagomål.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Tjakttjavárrie FSC-klagomål mail.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Tjakttjavárrie tillsynsbegäran.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Tjakttjavárrie tillsynsbegäran mail.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Tjakttjavárrie prioriterade fågelarter.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Avvanm 36411</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Båtselkojan-Lidvista</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G17" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
         <v>5</v>
       </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Gräddporing
-Smalfotad taggsvamp
-Nordtagging
-Vaddporing
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Avvanm 36411 artfynd.xlsx", "Avvanm 36411")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Avvanm 36411 karta.png", "Avvanm 36411")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Avvanm 36411 FSC-klagomål.docx", "Avvanm 36411")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Avvanm 36411 FSC-klagomål mail.docx", "Avvanm 36411")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Avvanm 36411 tillsynsbegäran.docx", "Avvanm 36411")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Avvanm 36411 tillsynsbegäran mail.docx", "Avvanm 36411")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Björnideforsen C</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Knottrig blåslav
-Liten svartspik
-Vitgrynig nållav
-Gytterlav
-Norrlandslav</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen C artfynd.xlsx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen C karta.png", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen C FSC-klagomål.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen C FSC-klagomål mail.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen C tillsynsbegäran.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen C tillsynsbegäran mail.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Njuorokvárátj</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gräddporing
-Blå taggsvamp
-Dvärgbägarlav
-Skrovlig taggsvamp
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Njuorokvárátj artfynd.xlsx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Njuorokvárátj karta.png", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Njuorokvárátj FSC-klagomål.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Njuorokvárátj FSC-klagomål mail.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Njuorokvárátj tillsynsbegäran.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Njuorokvárátj tillsynsbegäran mail.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Njuorokvárátj prioriterade fågelarter.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Båtselkojan-Lidvista</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>142.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Reliktbock
@@ -2184,93 +2380,93 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Båtselkojan-Lidvista artfynd.xlsx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Båtselkojan-Lidvista karta.png", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Båtselkojan-Lidvista karta knärot.png", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Båtselkojan-Lidvista FSC-klagomål.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Båtselkojan-Lidvista FSC-klagomål mail.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Båtselkojan-Lidvista tillsynsbegäran.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Båtselkojan-Lidvista tillsynsbegäran mail.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Båtselkojan-Lidvista prioriterade fågelarter.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>55.4</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>4</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Dvärgbägarlav
@@ -2278,85 +2474,85 @@
 Vitplätt</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/F artfynd.xlsx", "F")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/F karta.png", "F")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/F FSC-klagomål.docx", "F")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/F FSC-klagomål mail.docx", "F")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/F tillsynsbegäran.docx", "F")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/F tillsynsbegäran mail.docx", "F")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Junkásavvun</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C19" s="1" t="n">
         <v>45498</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>116</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>4</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Tallgråticka
 Blågrå svartspik
@@ -2364,112 +2560,28 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Junkásavvun artfynd.xlsx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Junkásavvun karta.png", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Junkásavvun FSC-klagomål.docx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Junkásavvun FSC-klagomål mail.docx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Junkásavvun tillsynsbegäran.docx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Junkásavvun tillsynsbegäran mail.docx", "Junkásavvun")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Björnideforsen A</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen A artfynd.xlsx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen A karta.png", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen A FSC-klagomål.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen A FSC-klagomål mail.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen A tillsynsbegäran.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen A tillsynsbegäran mail.docx", "Björnideforsen A")</f>
         <v/>
       </c>
     </row>

--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -575,11 +575,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -594,10 +594,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" t="n">
         <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -631,9 +631,11 @@
 Lateritticka
 Smalfotad taggsvamp
 Tajgataggsvamp
+Barkporlav
 Blanksvart spiklav
 Blå taggsvamp
 Blågrå svartspik
+Brunpudrad nållav
 Doftskinn
 Dvärgbägarlav
 Gammelgransskål
@@ -670,6 +672,7 @@
 Blodticka
 Bårdlav
 Dropptaggsvamp
+Jättesvampmal
 Källpraktmossa
 Luddlav
 Norrlandslav
@@ -727,16 +730,16 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slaktarberget</t>
+          <t>Björnideforsen C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -745,44 +748,196 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Borsttagging
+Doftticka
+Fläckporing
+Gräddporing
+Gräddticka
+Knärot
+Kristallticka
+Lateritticka
+Laxgröppa
+Laxporing
+Norna
+Smalfotad taggsvamp
+Tallstocksticka
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Garnlav
+Granticka
+Gränsticka
+Hornvaxskinn
+Knottrig blåslav
+Kolflarnlav
+Kortskaftad ärgspik
+Liten svartspik
+Luddfingersvamp
+Lunglav
+Mörk kolflarnlav
+Nordtagging
+Orange taggsvamp
+Rosenticka
+Röd trolldruva
+Skrovellav
+Spillkråka
+Svartvit taggsvamp
+Tallticka
+Talltita
+Tretåig hackspett
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Violmussling
+Vitgrynig nållav
+Vitplätt
+Blodticka
+Bårdlav
+Dropptaggsvamp
+Dvärgtufs
+Gytterlav
+Korallblylav
+Luddlav
+Norrlandslav
+Plattlummer
+Skinnlav
+Spindelblomster
+Stuplav
+Svart trolldruva
+Vedticka
+Ögonpyrola
+Lavskrika
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen C artfynd.xlsx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen C karta.png", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Björnideforsen C karta knärot.png", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen C FSC-klagomål.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen C FSC-klagomål mail.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen C tillsynsbegäran.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen C tillsynsbegäran mail.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen C prioriterade fågelarter.docx", "Björnideforsen C")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Slaktarberget</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>61.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>13</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>16</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>31</v>
       </c>
-      <c r="K3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>57</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>56</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
 Gräddporing
-Gräddticka
 Knärot
 Lappticka
 Blanksvart spiklav
@@ -838,93 +993,93 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Slaktarberget artfynd.xlsx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Slaktarberget karta.png", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="U3">
+      <c r="U4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Slaktarberget karta knärot.png", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Slaktarberget FSC-klagomål.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Slaktarberget FSC-klagomål mail.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Slaktarberget tillsynsbegäran.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Slaktarberget tillsynsbegäran mail.docx", "Slaktarberget")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Slaktarberget prioriterade fågelarter.docx", "Slaktarberget")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Stenberget-Klockartjärnen</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>98.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>28</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>33</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>52</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -980,89 +1135,89 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Stenberget-Klockartjärnen artfynd.xlsx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Stenberget-Klockartjärnen karta.png", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Stenberget-Klockartjärnen FSC-klagomål.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Stenberget-Klockartjärnen FSC-klagomål mail.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Stenberget-Klockartjärnen tillsynsbegäran.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Stenberget-Klockartjärnen tillsynsbegäran mail.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Stenberget-Klockartjärnen prioriterade fågelarter.docx", "Stenberget-Klockartjärnen")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Suddiesjávrrie</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>233.9</v>
       </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29</v>
+      </c>
+      <c r="K6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
-        <v>26</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>35</v>
+      </c>
+      <c r="P6" t="n">
         <v>6</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>32</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>44</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>49</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
@@ -1077,10 +1232,12 @@
 Gammelgransskål
 Garnlav
 Granticka
+Grå blåbärsfältmätare
 Hornvaxskinn
 Knottrig blåslav
 Kolflarnlav
 Kortskaftad ärgspik
+Liten svartspik
 Mörk kolflarnlav
 Nordtagging
 Reliktbock
@@ -1096,11 +1253,14 @@
 Vedskivlav
 Vedtrappmossa
 Vitgrynig nållav
+Vitplätt
+Bronshjon
 Dropptaggsvamp
 Norrlandslav
 Nästlav
 Plattlummer
 Skarp dropptaggsvamp
+Spindelblomster
 Vedticka
 Kungsfågel
 Lavskrika
@@ -1110,157 +1270,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Suddiesjávrrie artfynd.xlsx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Suddiesjávrrie karta.png", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Suddiesjávrrie FSC-klagomål.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Suddiesjávrrie FSC-klagomål mail.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Suddiesjávrrie tillsynsbegäran.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Suddiesjávrrie tillsynsbegäran mail.docx", "Suddiesjávrrie")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Suddiesjávrrie prioriterade fågelarter.docx", "Suddiesjávrrie")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Björnideforsen C</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>28</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>39</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Urskogsporing
-Fläckporing
-Gräddporing
-Kristallticka
-Laxgröppa
-Smalfotad taggsvamp
-Tallstocksticka
-Blanksvart spiklav
-Blå taggsvamp
-Blågrå svartspik
-Dvärgbägarlav
-Garnlav
-Granticka
-Gränsticka
-Knottrig blåslav
-Kolflarnlav
-Kortskaftad ärgspik
-Liten svartspik
-Mörk kolflarnlav
-Nordtagging
-Tretåig hackspett
-Vaddporing
-Vedflamlav
-Vedskivlav
-Vedtrappmossa
-Violmussling
-Vitgrynig nållav
-Vitplätt
-Blodticka
-Bårdlav
-Dropptaggsvamp
-Gytterlav
-Norrlandslav
-Plattlummer
-Skinnlav
-Stuplav
-Svart trolldruva
-Vedticka
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen C artfynd.xlsx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen C karta.png", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen C FSC-klagomål.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen C FSC-klagomål mail.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen C tillsynsbegäran.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen C tillsynsbegäran mail.docx", "Björnideforsen C")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen C prioriterade fågelarter.docx", "Björnideforsen C")</f>
         <v/>
       </c>
     </row>
@@ -1272,11 +1307,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -1288,19 +1323,19 @@
         <v>458.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1309,17 +1344,18 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lappticka
+          <t>Grynig gelélav
+Lappticka
 Liten sotlav
 Ostticka
 Rynkskinn
@@ -1331,6 +1367,7 @@
 Gränsticka
 Harticka
 Knottrig blåslav
+Liten svartspik
 Lunglav
 Oljetagging
 Rosenticka
@@ -1339,11 +1376,14 @@
 Tretåig hackspett
 Ullticka
 Violmussling
+Vitgrynig nållav
 Blodticka
 Bårdlav
 Gulnål
 Luddlav
+Plattlummer
 Skinnlav
+Stuplav
 Trådticka
 Vedticka
 Ögonpyrola
@@ -1364,7 +1404,7 @@
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Fiskträskberget-Sotträskberget FSC-klagomål mail.docx", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Fiskträskberget-Sotträskberget FSC-klagomå</f>
         <v/>
       </c>
       <c r="X7">
@@ -1383,16 +1423,16 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avvanm 36411</t>
+          <t>Björnideforsen B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -1401,13 +1441,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.4</v>
+        <v>91.7</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>18</v>
@@ -1416,24 +1456,379 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>34</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Doftticka
+Fläckporing
+Gräddporing
+Ostticka
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Gammelgransskål
+Garnlav
+Granticka
+Grå blåbärsfältmätare
+Knottrig blåslav
+Kolflarnlav
+Ladlav
+Mörk kolflarnlav
+Nordtagging
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Violmussling
+Vitgrynig nållav
+Bronshjon
+Bårdlav
+Dropptaggsvamp
+Gullgröppa
+Korallrot
+Luddlav
+Plattlummer
+Skinnlav
+Spindelblomster
+Stuplav
+Vågbandad barkbock
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen B artfynd.xlsx", "Björnideforsen B")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen B karta.png", "Björnideforsen B")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen B FSC-klagomål.docx", "Björnideforsen B")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen B FSC-klagomål mail.docx", "Björnideforsen B")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen B tillsynsbegäran.docx", "Björnideforsen B")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen B tillsynsbegäran mail.docx", "Björnideforsen B")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen B prioriterade fågelarter.docx", "Björnideforsen B")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Njuorokvárátj</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Tallstocksticka
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Gränsticka
+Hornvaxskinn
+Järpe
+Kolflarnlav
+Kortskaftad ärgspik
+Mörk kolflarnlav
+Nordtagging
+Skrovlig taggsvamp
+Spillkråka
+Talltaggsvamp
+Talltita
+Tretåig hackspett
+Vaddporing
+Vedflamlav
+Vedskivlav
+Vedtrappmossa
+Vitplätt
+Dropptaggsvamp
+Gullgröppa
+Plattlummer
+Skarp dropptaggsvamp
+Vedticka
+Lavskrika
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Njuorokvárátj artfynd.xlsx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Njuorokvárátj karta.png", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Njuorokvárátj FSC-klagomål.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Njuorokvárátj FSC-klagomål mail.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Njuorokvárátj tillsynsbegäran.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Njuorokvárátj tillsynsbegäran mail.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Njuorokvárátj prioriterade fågelarter.docx", "Njuorokvárátj")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Björnideforsen A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
+Knottrig blåslav
+Kolflarnlav
+Liten svartspik
+Mörk kolflarnlav
+Orange taggsvamp
+Svartvit taggsvamp
+Talltaggsvamp
+Tallticka
+Tretåig hackspett
+Vedflamlav
+Vedskivlav
+Vitgrynig nållav
+Bårdlav
+Dropptaggsvamp
+Gullgröppa
+Korallrot
+Källmossa
+Plattlummer
+Skarp dropptaggsvamp
+Spindelblomster
+Trådfräken
+Vedticka
+Ögonpyrola
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen A artfynd.xlsx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen A karta.png", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen A FSC-klagomål.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen A FSC-klagomål mail.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen A tillsynsbegäran.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen A tillsynsbegäran mail.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen A prioriterade fågelarter.docx", "Björnideforsen A")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Avvanm 36411</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>23</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q11" t="n">
         <v>30</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Fläckporing
@@ -1467,203 +1862,89 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Avvanm 36411 artfynd.xlsx", "Avvanm 36411")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Avvanm 36411 karta.png", "Avvanm 36411")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Avvanm 36411 FSC-klagomål.docx", "Avvanm 36411")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Avvanm 36411 FSC-klagomål mail.docx", "Avvanm 36411")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Avvanm 36411 tillsynsbegäran.docx", "Avvanm 36411")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Avvanm 36411 tillsynsbegäran mail.docx", "Avvanm 36411")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Avvanm 36411 prioriterade fågelarter.docx", "Avvanm 36411")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Njuorokvárátj</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Innerstliden A</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="G12" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>28</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Gräddporing
-Smalfotad taggsvamp
-Blanksvart spiklav
-Blå taggsvamp
-Blågrå svartspik
-Dvärgbägarlav
-Gränsticka
-Hornvaxskinn
-Järpe
-Kolflarnlav
-Kortskaftad ärgspik
-Mörk kolflarnlav
-Nordtagging
-Skrovlig taggsvamp
-Spillkråka
-Talltita
-Tretåig hackspett
-Vedflamlav
-Vedskivlav
-Vitplätt
-Dropptaggsvamp
-Gullgröppa
-Plattlummer
-Skarp dropptaggsvamp
-Vedticka
-Lavskrika
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Njuorokvárátj artfynd.xlsx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Njuorokvárátj karta.png", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Njuorokvárátj FSC-klagomål.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Njuorokvárátj FSC-klagomål mail.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Njuorokvárátj tillsynsbegäran.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Njuorokvárátj tillsynsbegäran mail.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Njuorokvárátj prioriterade fågelarter.docx", "Njuorokvárátj")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Innerstliden A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>28</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Blanksvart spiklav
@@ -1695,195 +1976,199 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden A artfynd.xlsx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden A karta.png", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden A FSC-klagomål.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden A FSC-klagomål mail.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden A tillsynsbegäran.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden A tillsynsbegäran mail.docx", "Innerstliden A")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden A prioriterade fågelarter.docx", "Innerstliden A")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Björnideforsen A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G13" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>20</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>24</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Urskogsporing
+Fläckporing
 Gräddporing
 Smalfotad taggsvamp
 Blanksvart spiklav
-Blå taggsvamp
 Blågrå svartspik
 Dvärgbägarlav
-Kolflarnlav
+Gränsticka
+Knottrig blåslav
 Mörk kolflarnlav
-Orange taggsvamp
-Svartvit taggsvamp
-Talltaggsvamp
+Spillkråka
+Talltita
 Tretåig hackspett
+Vedflamlav
 Vedskivlav
+Vitplätt
 Dropptaggsvamp
 Gullgröppa
+Luddlav
 Plattlummer
-Trådfräken
+Skarp dropptaggsvamp
+Spindelblomster
 Vedticka
 Tjäder</t>
         </is>
       </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen A artfynd.xlsx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen A karta.png", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen A FSC-klagomål.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen A FSC-klagomål mail.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen A tillsynsbegäran.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen A tillsynsbegäran mail.docx", "Björnideforsen A")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Björnideforsen A prioriterade fågelarter.docx", "Björnideforsen A")</f>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/F artfynd.xlsx", "F")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/F karta.png", "F")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/F FSC-klagomål.docx", "F")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/F FSC-klagomål mail.docx", "F")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/F tillsynsbegäran.docx", "F")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/F tillsynsbegäran mail.docx", "F")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/F prioriterade fågelarter.docx", "F")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Innerstliden B</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>30.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>16</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q14" t="n">
         <v>20</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Blågrå svartspik
@@ -1907,89 +2192,89 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden B artfynd.xlsx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden B karta.png", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden B FSC-klagomål.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden B FSC-klagomål mail.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden B tillsynsbegäran.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden B tillsynsbegäran mail.docx", "Innerstliden B")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden B prioriterade fågelarter.docx", "Innerstliden B")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Mittiliden</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>51.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J15" t="n">
         <v>12</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>12</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>16</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Dvärgbägarlav
@@ -2009,89 +2294,89 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Mittiliden artfynd.xlsx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Mittiliden karta.png", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Mittiliden FSC-klagomål.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Mittiliden FSC-klagomål mail.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Mittiliden tillsynsbegäran.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Mittiliden tillsynsbegäran mail.docx", "Mittiliden")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Mittiliden prioriterade fågelarter.docx", "Mittiliden")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Klammájávrrie</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>166.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>5</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>10</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Garnlav
@@ -2105,85 +2390,85 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Klammájávrrie artfynd.xlsx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Klammájávrrie karta.png", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Klammájávrrie FSC-klagomål.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Klammájávrrie FSC-klagomål mail.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Klammájávrrie tillsynsbegäran.docx", "Klammájávrrie")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Klammájávrrie tillsynsbegäran mail.docx", "Klammájávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Gárddiejávrrie</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>193.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>8</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>8</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Gammelgransskål
@@ -2195,89 +2480,89 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gárddiejávrrie artfynd.xlsx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gárddiejávrrie karta.png", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gárddiejávrrie FSC-klagomål.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gárddiejávrrie FSC-klagomål mail.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gárddiejávrrie tillsynsbegäran.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gárddiejávrrie tillsynsbegäran mail.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Gárddiejávrrie prioriterade fågelarter.docx", "Gárddiejávrrie")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Tjakttjavárrie</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>83.8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J18" t="n">
         <v>7</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>7</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>8</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Garnlav
@@ -2289,89 +2574,89 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Tjakttjavárrie artfynd.xlsx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Tjakttjavárrie karta.png", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Tjakttjavárrie FSC-klagomål.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Tjakttjavárrie FSC-klagomål mail.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Tjakttjavárrie tillsynsbegäran.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Tjakttjavárrie tillsynsbegäran mail.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Tjakttjavárrie prioriterade fågelarter.docx", "Tjakttjavárrie")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Båtselkojan-Lidvista</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>142.8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>4</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>5</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Reliktbock
@@ -2380,179 +2665,93 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Båtselkojan-Lidvista artfynd.xlsx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Båtselkojan-Lidvista karta.png", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Båtselkojan-Lidvista karta knärot.png", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Båtselkojan-Lidvista FSC-klagomål.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Båtselkojan-Lidvista FSC-klagomål mail.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Båtselkojan-Lidvista tillsynsbegäran.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Båtselkojan-Lidvista tillsynsbegäran mail.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Båtselkojan-Lidvista prioriterade fågelarter.docx", "Båtselkojan-Lidvista")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Junkásavvun</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-08-02</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45506</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Arvidsjaur</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="G20" t="n">
+        <v>116</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="Q20" t="n">
         <v>4</v>
       </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Dvärgbägarlav
-Vedskivlav
-Vitplätt</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/F artfynd.xlsx", "F")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/F karta.png", "F")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/F FSC-klagomål.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/F FSC-klagomål mail.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/F tillsynsbegäran.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/F tillsynsbegäran mail.docx", "F")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Junkásavvun</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>116</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Tallgråticka
 Blågrå svartspik
@@ -2560,128 +2759,44 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Junkásavvun artfynd.xlsx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Junkásavvun karta.png", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Junkásavvun FSC-klagomål.docx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Junkásavvun FSC-klagomål mail.docx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Junkásavvun tillsynsbegäran.docx", "Junkásavvun")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Junkásavvun tillsynsbegäran mail.docx", "Junkásavvun")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gullesheden-Ábrávrre</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45498</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Knottrig blåslav</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gullesheden-Ábrávrre artfynd.xlsx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gullesheden-Ábrávrre karta.png", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gullesheden-Ábrávrre FSC-klagomål.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gullesheden-Ábrávrre FSC-klagomål mail.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gullesheden-Ábrávrre tillsynsbegäran.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gullesheden-Ábrávrre tillsynsbegäran mail.docx", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Björnideforsen B</t>
+          <t>Gullesheden-Ábrávrre</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -2690,7 +2805,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>91.7</v>
+        <v>252.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2699,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2717,39 +2832,39 @@
         <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Gräddporing
-Ostticka</t>
+          <t>Granticka
+Knottrig blåslav</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Björnideforsen B artfynd.xlsx", "Björnideforsen B")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gullesheden-Ábrávrre artfynd.xlsx", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Björnideforsen B karta.png", "Björnideforsen B")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gullesheden-Ábrávrre karta.png", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Björnideforsen B FSC-klagomål.docx", "Björnideforsen B")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gullesheden-Ábrávrre FSC-klagomål.docx", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Björnideforsen B FSC-klagomål mail.docx", "Björnideforsen B")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gullesheden-Ábrávrre FSC-klagomål mail.docx", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Björnideforsen B tillsynsbegäran.docx", "Björnideforsen B")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gullesheden-Ábrávrre tillsynsbegäran.docx", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Björnideforsen B tillsynsbegäran mail.docx", "Björnideforsen B")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gullesheden-Ábrávrre tillsynsbegäran mail.docx", "Gullesheden-Ábrávrre")</f>
         <v/>
       </c>
     </row>
@@ -2761,11 +2876,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -2816,11 +2931,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -2882,6 +2997,10 @@
         <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/F tillsynsbegäran mail.docx", "F")</f>
         <v/>
       </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/F prioriterade fågelarter.docx", "F")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
@@ -2891,11 +3010,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -2946,11 +3065,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45498</v>
+        <v>45506</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">

--- a/Översikt.xlsx
+++ b/Översikt.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,11 +575,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>207.9</v>
+        <v>203.2</v>
       </c>
       <c r="H2" t="n">
         <v>14</v>
@@ -735,11 +735,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -748,16 +748,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>150.9</v>
+        <v>132</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>13</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P3" t="n">
         <v>14</v>
       </c>
       <c r="Q3" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -800,14 +800,12 @@
 Blå taggsvamp
 Blågrå svartspik
 Dvärgbägarlav
-Garnlav
 Granticka
 Gränsticka
 Hornvaxskinn
 Knottrig blåslav
 Kolflarnlav
 Kortskaftad ärgspik
-Liten svartspik
 Luddfingersvamp
 Lunglav
 Mörk kolflarnlav
@@ -835,7 +833,6 @@
 Gytterlav
 Korallblylav
 Luddlav
-Norrlandslav
 Plattlummer
 Skinnlav
 Spindelblomster
@@ -888,11 +885,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -1034,11 +1031,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -1172,11 +1169,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -1185,7 +1182,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>233.9</v>
+        <v>176.6</v>
       </c>
       <c r="H6" t="n">
         <v>11</v>
@@ -1194,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -1209,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="n">
         <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1228,6 @@
 Dvärgbägarlav
 Gammelgransskål
 Garnlav
-Granticka
 Grå blåbärsfältmätare
 Hornvaxskinn
 Knottrig blåslav
@@ -1302,16 +1298,16 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fiskträskberget-Sotträskberget</t>
+          <t>Suöbdieke NÖ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -1320,19 +1316,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>458.4</v>
+        <v>64.7</v>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
       <c r="J7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1344,79 +1340,78 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Grynig gelélav
-Lappticka
-Liten sotlav
-Ostticka
-Rynkskinn
-Ulltickeporing
-Doftskinn
-Gammelgransskål
-Garnlav
-Granticka
-Gränsticka
-Harticka
+          <t>Tornseglare
+Fläckporing
+Gräddporing
+Lateritticka
+Smalfotad taggsvamp
+Tajgataggsvamp
+Tallgråticka
+Atheta pandionis
+Blanksvart spiklav
+Blå taggsvamp
+Blågrå svartspik
+Dvärgbägarlav
 Knottrig blåslav
-Liten svartspik
-Lunglav
-Oljetagging
-Rosenticka
-Rödbrun blekspik
-Skrovellav
+Kolflarnlav
+Mörk kolflarnlav
+Nordtagging
+Orange taggsvamp
+Skrovlig taggsvamp
+Spillkråka
+Svartvit taggsvamp
+Talltaggsvamp
+Talltita
 Tretåig hackspett
 Ullticka
-Violmussling
-Vitgrynig nållav
-Blodticka
-Bårdlav
-Gulnål
-Luddlav
+Vaxspindling
+Vedflamlav
+Vedskivlav
+Vitplätt
+Dropptaggsvamp
 Plattlummer
-Skinnlav
-Stuplav
-Trådticka
+Skarp dropptaggsvamp
 Vedticka
-Ögonpyrola
 Lavskrika
 Tjäder</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Fiskträskberget-Sotträskberget artfynd.xlsx", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Suöbdieke NÖ artfynd.xlsx", "Suöbdieke NÖ")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Fiskträskberget-Sotträskberget karta.png", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Suöbdieke NÖ karta.png", "Suöbdieke NÖ")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Fiskträskberget-Sotträskberget FSC-klagomål.docx", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Suöbdieke NÖ FSC-klagomål.docx", "Suöbdieke NÖ")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Fiskträskberget-Sotträskberget FSC-klagomå</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Suöbdieke NÖ FSC-klagomål mail.docx", "Suöbdieke NÖ")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Fiskträskberget-Sotträskberget tillsynsbegäran.docx", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Suöbdieke NÖ tillsynsbegäran.docx", "Suöbdieke NÖ")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Fiskträskberget-Sotträskberget tillsynsbegäran mail.docx", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Suöbdieke NÖ tillsynsbegäran mail.docx", "Suöbdieke NÖ")</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Fiskträskberget-Sotträskberget prioriterade fågelarter.docx", "Fiskträskberget-Sotträskberget")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Suöbdieke NÖ prioriterade fågelarter.docx", "Suöbdieke NÖ")</f>
         <v/>
       </c>
     </row>
@@ -1428,11 +1423,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -1441,7 +1436,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>91.7</v>
+        <v>56.7</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -1453,7 +1448,7 @@
         <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1465,20 +1460,19 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Doftticka
 Fläckporing
 Gräddporing
-Ostticka
 Blanksvart spiklav
 Blå taggsvamp
 Blågrå svartspik
@@ -1548,11 +1542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -1666,11 +1660,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -1783,11 +1777,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -1894,16 +1888,16 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Innerstliden A</t>
+          <t>Láttakjávrátje</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -1912,19 +1906,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>66.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1936,88 +1930,86 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
+Gräddporing
+Smalfotad taggsvamp
+Spadskinn
 Blanksvart spiklav
+Blå taggsvamp
 Blågrå svartspik
-Garnlav
-Granticka
-Gränsticka
-Knottrig blåslav
+Dvärgbägarlav
 Kolflarnlav
 Kortskaftad ärgspik
-Mörk kolflarnlav
+Mjölsvärting
+Nordlig nållav
+Nordtagging
+Orange taggsvamp
+Spillkråka
+Tallriska
+Talltaggsvamp
 Talltita
-Tretåig hackspett
-Ullticka
 Vedflamlav
 Vedskivlav
-Vedtrappmossa
-Vitgrynig nållav
+Vitplätt
 Dropptaggsvamp
-Dvärgtufs
-Luddlav
-Plattlummer
-Skinnlav
-Spindelblomster
-Stuplav
+Skarp dropptaggsvamp
 Vedticka
-Vågbandad barkbock
 Lavskrika
 Tjäder</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden A artfynd.xlsx", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Láttakjávrátje artfynd.xlsx", "Láttakjávrátje")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden A karta.png", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Láttakjávrátje karta.png", "Láttakjávrátje")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden A FSC-klagomål.docx", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Láttakjávrátje FSC-klagomål.docx", "Láttakjávrátje")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden A FSC-klagomål mail.docx", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Láttakjávrátje FSC-klagomål mail.docx", "Láttakjávrátje")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden A tillsynsbegäran.docx", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Láttakjávrátje tillsynsbegäran.docx", "Láttakjávrátje")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden A tillsynsbegäran mail.docx", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Láttakjávrátje tillsynsbegäran mail.docx", "Láttakjávrátje")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden A prioriterade fågelarter.docx", "Innerstliden A")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Láttakjávrátje prioriterade fågelarter.docx", "Láttakjávrátje")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Gåbddieluoktta</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45506</v>
+        <v>45508</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -2026,7 +2018,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>55.4</v>
+        <v>50.2</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
@@ -2087,1030 +2079,33 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/F artfynd.xlsx", "F")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gåbddieluoktta artfynd.xlsx", "Gåbddieluoktta")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/F karta.png", "F")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gåbddieluoktta karta.png", "Gåbddieluoktta")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/F FSC-klagomål.docx", "F")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gåbddieluoktta FSC-klagomål.docx", "Gåbddieluoktta")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/F FSC-klagomål mail.docx", "F")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gåbddieluoktta FSC-klagomål mail.docx", "Gåbddieluoktta")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/F tillsynsbegäran.docx", "F")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gåbddieluoktta tillsynsbegäran.docx", "Gåbddieluoktta")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/F tillsynsbegäran mail.docx", "F")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gåbddieluoktta tillsynsbegäran mail.docx", "Gåbddieluoktta")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/F prioriterade fågelarter.docx", "F")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Innerstliden B</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>20</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Tornseglare
-Blågrå svartspik
-Dvärgbägarlav
-Garnlav
-Granticka
-Kolflarnlav
-Kortskaftad ärgspik
-Mörk kolflarnlav
-Rosenticka
-Talltita
-Tretåig hackspett
-Ullticka
-Vedflamlav
-Vedskivlav
-Vedtrappmossa
-Vitgrynig nållav
-Dropptaggsvamp
-Plattlummer
-Vågbandad barkbock
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Innerstliden B artfynd.xlsx", "Innerstliden B")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Innerstliden B karta.png", "Innerstliden B")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Innerstliden B FSC-klagomål.docx", "Innerstliden B")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Innerstliden B FSC-klagomål mail.docx", "Innerstliden B")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Innerstliden B tillsynsbegäran.docx", "Innerstliden B")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Innerstliden B tillsynsbegäran mail.docx", "Innerstliden B")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Innerstliden B prioriterade fågelarter.docx", "Innerstliden B")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mittiliden</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>16</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Doftskinn
-Dvärgbägarlav
-Garnlav
-Granticka
-Kolflarnlav
-Rosenticka
-Spillkråka
-Talltita
-Tretåig hackspett
-Ullticka
-Vedtrappmossa
-Vitgrynig nållav
-Plattlummer
-Spindelblomster
-Vedticka
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Mittiliden artfynd.xlsx", "Mittiliden")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Mittiliden karta.png", "Mittiliden")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Mittiliden FSC-klagomål.docx", "Mittiliden")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Mittiliden FSC-klagomål mail.docx", "Mittiliden")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Mittiliden tillsynsbegäran.docx", "Mittiliden")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Mittiliden tillsynsbegäran mail.docx", "Mittiliden")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Mittiliden prioriterade fågelarter.docx", "Mittiliden")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Klammájávrrie</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>166.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp
-Garnlav
-Harticka
-Svartvit taggsvamp
-Vitgrynig nållav
-Dropptaggsvamp
-Luddlav
-Vedticka
-Fläcknycklar
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Klammájávrrie artfynd.xlsx", "Klammájávrrie")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Klammájávrrie karta.png", "Klammájávrrie")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Klammájávrrie FSC-klagomål.docx", "Klammájávrrie")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Klammájávrrie FSC-klagomål mail.docx", "Klammájávrrie")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Klammájávrrie tillsynsbegäran.docx", "Klammájávrrie")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Klammájávrrie tillsynsbegäran mail.docx", "Klammájávrrie")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Gárddiejávrrie</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>8</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>8</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgbägarlav
-Gammelgransskål
-Garnlav
-Granticka
-Harticka
-Rosenticka
-Tretåig hackspett
-Ullticka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gárddiejávrrie artfynd.xlsx", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gárddiejávrrie karta.png", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gárddiejávrrie FSC-klagomål.docx", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gárddiejávrrie FSC-klagomål mail.docx", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gárddiejávrrie tillsynsbegäran.docx", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gárddiejávrrie tillsynsbegäran mail.docx", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Gárddiejávrrie prioriterade fågelarter.docx", "Gárddiejávrrie")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Tjakttjavárrie</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Dvärgbägarlav
-Garnlav
-Granticka
-Knottrig blåslav
-Nordtagging
-Tretåig hackspett
-Vitgrynig nållav
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Tjakttjavárrie artfynd.xlsx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Tjakttjavárrie karta.png", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Tjakttjavárrie FSC-klagomål.docx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Tjakttjavárrie FSC-klagomål mail.docx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Tjakttjavárrie tillsynsbegäran.docx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Tjakttjavárrie tillsynsbegäran mail.docx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Tjakttjavárrie prioriterade fågelarter.docx", "Tjakttjavárrie")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Båtselkojan-Lidvista</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>142.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Reliktbock
-Rosenticka
-Tretåig hackspett
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Båtselkojan-Lidvista artfynd.xlsx", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Båtselkojan-Lidvista karta.png", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/knärot/Båtselkojan-Lidvista karta knärot.png", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Båtselkojan-Lidvista FSC-klagomål.docx", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Båtselkojan-Lidvista FSC-klagomål mail.docx", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Båtselkojan-Lidvista tillsynsbegäran.docx", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Båtselkojan-Lidvista tillsynsbegäran mail.docx", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Båtselkojan-Lidvista prioriterade fågelarter.docx", "Båtselkojan-Lidvista")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Junkásavvun</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>116</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Tallgråticka
-Blågrå svartspik
-Skrovlig taggsvamp
-Skarp dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Junkásavvun artfynd.xlsx", "Junkásavvun")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Junkásavvun karta.png", "Junkásavvun")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Junkásavvun FSC-klagomål.docx", "Junkásavvun")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Junkásavvun FSC-klagomål mail.docx", "Junkásavvun")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Junkásavvun tillsynsbegäran.docx", "Junkásavvun")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Junkásavvun tillsynsbegäran mail.docx", "Junkásavvun")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Gullesheden-Ábrávrre</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>252.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Knottrig blåslav</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/artfynd/Gullesheden-Ábrávrre artfynd.xlsx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/Gullesheden-Ábrávrre karta.png", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/Gullesheden-Ábrávrre FSC-klagomål.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/Gullesheden-Ábrávrre FSC-klagomål mail.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/Gullesheden-Ábrávrre tillsynsbegäran.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/Gullesheden-Ábrávrre tillsynsbegäran mail.docx", "Gullesheden-Ábrávrre")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bergmyrberget</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/kartor/F karta.png", "F")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomål/F FSC-klagomål.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/klagomålsmail/F FSC-klagomål mail.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsyn/F tillsynsbegäran.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/tillsynsmail/F tillsynsbegäran mail.docx", "F")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/F prioriterade fågelarter.docx", "F")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Suorrggesuoloj</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Innerstliden fräkenträsket</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>45506</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSKNINGSRESAN_2024/fåglar/Gåbddieluoktta prioriterade fågelarter.docx", "Gåbddieluoktta")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
